--- a/EXCEL/夹具定义.xlsx
+++ b/EXCEL/夹具定义.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Terry\Web\TMS-forestage\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EA963-18DB-4076-A292-7100C9E07E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED75F839-55EF-43D7-B0BD-A547D6F24FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="105">
   <si>
     <t>Workcell</t>
   </si>
@@ -491,14 +491,84 @@
     <t>OwnerID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2019/7/4  16:09:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:09</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:10</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:11</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:12</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:13</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:14</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:15</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:16</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:17</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:18</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:19</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:20</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:21</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:22</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:23</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:24</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:25</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:26</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:27</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:28</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:29</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:30</t>
+  </si>
+  <si>
+    <t>2019/7/4  16:09:31</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -595,9 +665,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -612,6 +679,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -892,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A3BBF-5411-4C88-8DF5-055B0783014C}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -906,12 +981,14 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="34.21875" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="10"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="9"/>
+    <col min="11" max="11" width="20.88671875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -936,26 +1013,26 @@
       <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -971,35 +1048,36 @@
       <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="3">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
-      <c r="K2" s="5">
-        <v>43650.673004780088</v>
+      <c r="K2" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5">
-        <v>43650.673004780088</v>
+      <c r="M2" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -1015,35 +1093,35 @@
       <c r="E3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="3">
         <v>30</v>
       </c>
-      <c r="K3" s="5">
-        <v>43650.674258136569</v>
+      <c r="K3" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5">
-        <v>43650.674258136569</v>
+      <c r="M3" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1059,35 +1137,35 @@
       <c r="E4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="3">
         <v>2</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
         <v>30</v>
       </c>
-      <c r="K4" s="5">
-        <v>43650.675109687501</v>
+      <c r="K4" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="5">
-        <v>43650.675109687501</v>
+      <c r="M4" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1103,35 +1181,35 @@
       <c r="E5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="3">
         <v>30</v>
       </c>
-      <c r="K5" s="5">
-        <v>43650.675707870367</v>
+      <c r="K5" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="5">
-        <v>43650.675707870367</v>
+      <c r="M5" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1147,7 +1225,7 @@
       <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1156,26 +1234,26 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="3">
         <v>30</v>
       </c>
-      <c r="K6" s="5">
-        <v>43650.676189733793</v>
+      <c r="K6" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="5">
-        <v>43650.676189733793</v>
+      <c r="M6" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -1191,7 +1269,7 @@
       <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1200,26 +1278,26 @@
       <c r="H7" s="3">
         <v>2</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="3">
         <v>30</v>
       </c>
-      <c r="K7" s="5">
-        <v>43650.6768246875</v>
+      <c r="K7" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="5">
-        <v>43650.6768246875</v>
+      <c r="M7" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1235,7 +1313,7 @@
       <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1244,26 +1322,26 @@
       <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="3">
         <v>30</v>
       </c>
-      <c r="K8" s="5">
-        <v>43650.677289386571</v>
+      <c r="K8" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="5">
-        <v>43650.677289386571</v>
+      <c r="M8" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -1279,7 +1357,7 @@
       <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1288,26 +1366,26 @@
       <c r="H9" s="3">
         <v>3</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="3">
         <v>30</v>
       </c>
-      <c r="K9" s="5">
-        <v>43650.678377974538</v>
+      <c r="K9" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="5">
-        <v>43650.678377974538</v>
+      <c r="M9" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1323,7 +1401,7 @@
       <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1332,26 +1410,26 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="3">
         <v>30</v>
       </c>
-      <c r="K10" s="5">
-        <v>43658.335147025464</v>
+      <c r="K10" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="5">
-        <v>43658.335147025464</v>
+      <c r="M10" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1367,7 +1445,7 @@
       <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1376,26 +1454,26 @@
       <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="3">
         <v>30</v>
       </c>
-      <c r="K11" s="5">
-        <v>43658.336073692131</v>
+      <c r="K11" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="5">
-        <v>43658.336073692131</v>
+      <c r="M11" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -1411,7 +1489,7 @@
       <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1420,26 +1498,26 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="3">
         <v>30</v>
       </c>
-      <c r="K12" s="5">
-        <v>43658.336572337961</v>
+      <c r="K12" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="5">
-        <v>43658.336572337961</v>
+      <c r="M12" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1455,7 +1533,7 @@
       <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1464,26 +1542,26 @@
       <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="3">
         <v>30</v>
       </c>
-      <c r="K13" s="5">
-        <v>43662.635273148146</v>
+      <c r="K13" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="5">
-        <v>43662.635273148146</v>
+      <c r="M13" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1499,7 +1577,7 @@
       <c r="E14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1508,26 +1586,26 @@
       <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="3">
         <v>30</v>
       </c>
-      <c r="K14" s="5">
-        <v>43662.636407210644</v>
+      <c r="K14" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="5">
-        <v>43662.636407210644</v>
+      <c r="M14" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -1543,7 +1621,7 @@
       <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1552,26 +1630,26 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="3">
         <v>30</v>
       </c>
-      <c r="K15" s="5">
-        <v>43662.63733769676</v>
+      <c r="K15" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="5">
-        <v>43662.63733769676</v>
+      <c r="M15" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1587,7 +1665,7 @@
       <c r="E16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1596,20 +1674,20 @@
       <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="3">
         <v>30</v>
       </c>
-      <c r="K16" s="5">
-        <v>43664.666139270834</v>
+      <c r="K16" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="5">
-        <v>43664.666139270834</v>
+      <c r="M16" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>11</v>
@@ -1631,7 +1709,7 @@
       <c r="E17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1640,20 +1718,20 @@
       <c r="H17" s="3">
         <v>3</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="3">
         <v>30</v>
       </c>
-      <c r="K17" s="5">
-        <v>43664.666969872684</v>
+      <c r="K17" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="5">
-        <v>43664.666969872684</v>
+      <c r="M17" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>11</v>
@@ -1675,7 +1753,7 @@
       <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -1684,20 +1762,20 @@
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="3">
         <v>30</v>
       </c>
-      <c r="K18" s="5">
-        <v>43769.418819444443</v>
+      <c r="K18" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="5">
-        <v>43770.349363657406</v>
+      <c r="M18" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>11</v>
@@ -1719,7 +1797,7 @@
       <c r="E19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -1728,20 +1806,20 @@
       <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="3">
         <v>30</v>
       </c>
-      <c r="K19" s="5">
-        <v>43769.41968082176</v>
+      <c r="K19" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="5">
-        <v>43770.349591168982</v>
+      <c r="M19" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>11</v>
@@ -1763,7 +1841,7 @@
       <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -1772,20 +1850,20 @@
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J20" s="3">
         <v>30</v>
       </c>
-      <c r="K20" s="5">
-        <v>43769.420288344903</v>
+      <c r="K20" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="5">
-        <v>43770.349798414347</v>
+      <c r="M20" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>11</v>
@@ -1807,7 +1885,7 @@
       <c r="E21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -1816,20 +1894,20 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="3">
         <v>30</v>
       </c>
-      <c r="K21" s="5">
-        <v>43769.420966516205</v>
+      <c r="K21" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="5">
-        <v>43770.349993900461</v>
+      <c r="M21" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>11</v>
@@ -1851,7 +1929,7 @@
       <c r="E22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -1860,20 +1938,20 @@
       <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="3">
         <v>30</v>
       </c>
-      <c r="K22" s="5">
-        <v>43769.421360532404</v>
+      <c r="K22" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="5">
-        <v>43770.350166284719</v>
+      <c r="M22" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>11</v>
@@ -1895,7 +1973,7 @@
       <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -1904,20 +1982,20 @@
       <c r="H23" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="3">
         <v>30</v>
       </c>
-      <c r="K23" s="5">
-        <v>43769.421868749996</v>
+      <c r="K23" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="5">
-        <v>43770.35035763889</v>
+      <c r="M23" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>11</v>
@@ -1939,7 +2017,7 @@
       <c r="E24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -1948,20 +2026,20 @@
       <c r="H24" s="3">
         <v>1</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="3">
         <v>30</v>
       </c>
-      <c r="K24" s="5">
-        <v>43769.422343668979</v>
+      <c r="K24" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="5">
-        <v>43770.350588229165</v>
+      <c r="M24" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>11</v>
@@ -1983,7 +2061,7 @@
       <c r="E25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -1992,20 +2070,20 @@
       <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="3">
         <v>30</v>
       </c>
-      <c r="K25" s="5">
-        <v>43769.422735416665</v>
+      <c r="K25" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="5">
-        <v>43776.417275347223</v>
+      <c r="M25" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>35</v>
@@ -2014,5 +2092,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
 </worksheet>
 </file>